--- a/data/trans_bre/P19-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 15,95</t>
+          <t>1,88; 15,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 10,23</t>
+          <t>-4,83; 10,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 14,3</t>
+          <t>-1,37; 14,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 14,74</t>
+          <t>3,04; 14,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 56,2</t>
+          <t>5,63; 54,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 32,43</t>
+          <t>-12,42; 32,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 45,11</t>
+          <t>-3,65; 44,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 44,19</t>
+          <t>7,27; 45,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 15,63</t>
+          <t>2,35; 15,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 14,97</t>
+          <t>-0,71; 15,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 17,35</t>
+          <t>3,2; 17,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 18,22</t>
+          <t>5,91; 18,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 59,65</t>
+          <t>6,74; 58,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 50,04</t>
+          <t>-2,05; 51,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 62,2</t>
+          <t>8,26; 60,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,47; 66,87</t>
+          <t>17,39; 67,37</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 15,11</t>
+          <t>-1,76; 13,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 22,06</t>
+          <t>8,14; 22,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 17,01</t>
+          <t>-0,94; 16,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 27,85</t>
+          <t>-1,63; 27,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 67,37</t>
+          <t>-6,67; 60,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,98; 112,99</t>
+          <t>34,3; 114,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 67,91</t>
+          <t>-3,17; 68,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 367,84</t>
+          <t>-6,91; 381,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 14,28</t>
+          <t>5,58; 14,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,94</t>
+          <t>4,81; 13,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 13,27</t>
+          <t>4,68; 13,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 15,09</t>
+          <t>-8,17; 15,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,88; 67,96</t>
+          <t>23,8; 70,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 74,72</t>
+          <t>24,68; 77,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 54,78</t>
+          <t>16,5; 54,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 71,74</t>
+          <t>-34,18; 70,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 17,36</t>
+          <t>5,94; 17,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 13,02</t>
+          <t>3,07; 12,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 11,6</t>
+          <t>1,12; 11,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 14,78</t>
+          <t>-2,34; 15,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,16; 111,07</t>
+          <t>25,74; 110,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 74,33</t>
+          <t>13,17; 72,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,51; 54,3</t>
+          <t>3,97; 52,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 83,1</t>
+          <t>-11,8; 85,47</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 7,96</t>
+          <t>-2,52; 8,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -1,17</t>
+          <t>-13,16; -0,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -3,32</t>
+          <t>-16,85; -3,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 1,86</t>
+          <t>-21,63; 0,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 42,5</t>
+          <t>-9,27; 40,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -4,05</t>
+          <t>-34,27; -1,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,7; -9,78</t>
+          <t>-35,91; -9,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 7,78</t>
+          <t>-49,65; 2,47</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,71</t>
+          <t>4,4; 8,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,98</t>
+          <t>3,5; 7,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,72</t>
+          <t>3,09; 7,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 10,62</t>
+          <t>-0,8; 10,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,89; 36,42</t>
+          <t>16,07; 37,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,3; 33,73</t>
+          <t>13,76; 33,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,92; 27,63</t>
+          <t>9,99; 27,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 50,02</t>
+          <t>-2,36; 47,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
